--- a/UniPrj/EAM/Assets/GameSettings~/TableTileTerrain.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableTileTerrain.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>terrain</t>
   </si>
 </sst>
 </file>
@@ -25,11 +28,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,21 +42,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,55 +116,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,13 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -152,9 +148,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,27 +180,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,73 +194,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,109 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,16 +403,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -455,17 +451,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,162 +485,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,17 +987,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/UniPrj/EAM/Assets/GameSettings~/TableTileTerrain.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableTileTerrain.xlsx
@@ -14,12 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>terrain</t>
+  </si>
+  <si>
+    <t>tileImage</t>
+  </si>
+  <si>
+    <t>baseImage</t>
+  </si>
+  <si>
+    <t>tt1</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>tt2</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>auto</t>
   </si>
 </sst>
 </file>
@@ -27,9 +51,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -41,73 +65,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -116,9 +73,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +179,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -148,13 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -164,22 +203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,6 +409,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -403,6 +453,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -414,21 +473,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,26 +509,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -493,10 +517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -505,133 +529,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,23 +1011,64 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/UniPrj/EAM/Assets/GameSettings~/TableTileTerrain.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableTileTerrain.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>tt1</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>nil</t>
@@ -51,9 +48,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -65,6 +62,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -74,96 +146,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -180,30 +162,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,28 +409,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,26 +439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,17 +472,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,10 +514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,133 +526,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1011,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1051,24 +1048,24 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/UniPrj/EAM/Assets/GameSettings~/TableTileTerrain.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableTileTerrain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\EAM\EAM\UniPrj\EAM\Assets\GameSettings~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DDCCA9-314C-412F-BFDC-67A8052A7620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDA816A-7712-44CC-9F43-C917177B746B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15900" yWindow="6705" windowWidth="14970" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{AE268932-19A8-4773-8269-55634DD1F7B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+obstacle=不能进入区域</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -50,12 +86,18 @@
     <t>tt2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>tt3</t>
+  </si>
+  <si>
+    <t>obstacle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +119,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,6 +180,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,11 +472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -472,9 +533,24 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/UniPrj/EAM/Assets/GameSettings~/TableTileTerrain.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableTileTerrain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\EAM\EAM\UniPrj\EAM\Assets\GameSettings~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDA816A-7712-44CC-9F43-C917177B746B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D769C84-4DDA-4C82-B638-0A3D344C8A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15900" yWindow="6705" windowWidth="14970" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,6 +91,7 @@
   </si>
   <si>
     <t>obstacle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -180,10 +181,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,7 +473,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
